--- a/va_facility_data_2025-02-20/Northwest Tucson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20Tucson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northwest Tucson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20Tucson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1a2773a8061541068d9f50b4175946d4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb2eb9efc807248219c3d80a781fb0859"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f4b56da50ea42f7951ca876fcb32fa3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8a66474b53234bdab48ef551eca1359f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra62e02e7f59242ab8f8a5565787ea79f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7767b63529e24560b36892ebe39a1aed"/>
   </x:sheets>
 </x:workbook>
 </file>
